--- a/data-raw/metadata/lower_feather_recapture_metadata.xlsx
+++ b/data-raw/metadata/lower_feather_recapture_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-lower-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C43B39-D11A-0D4A-BBAD-89B2512FBBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252085D1-087C-414E-A19B-2FCF20E13634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16820" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -106,28 +106,10 @@
     <t>fishOrigin</t>
   </si>
   <si>
-    <t>lifeStage</t>
-  </si>
-  <si>
-    <t>forkLength</t>
-  </si>
-  <si>
-    <t>Fork length of the fish measured in millimeters</t>
-  </si>
-  <si>
     <t>ratio</t>
   </si>
   <si>
     <t>numeric</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>totalLength</t>
-  </si>
-  <si>
-    <t>Total length of the fish measured in millimeters</t>
   </si>
   <si>
     <t>n</t>
@@ -172,12 +154,6 @@
     <t>markPosition</t>
   </si>
   <si>
-    <t>markCode</t>
-  </si>
-  <si>
-    <t>code identifying the type of mark</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
@@ -185,9 +161,6 @@
   </si>
   <si>
     <t>attribute_name</t>
-  </si>
-  <si>
-    <t>millimeter</t>
   </si>
   <si>
     <t>number of fish</t>
@@ -217,13 +190,7 @@
     <t>Run as assigned at the time of the capture. Levels = c("Not recorded", "Fall")</t>
   </si>
   <si>
-    <t>Run revised after field visit. Levels = c("Not recorded", "Fall")</t>
-  </si>
-  <si>
     <t>Origin/production type of the fish. Levels = c("Natural", "Hatchery")</t>
-  </si>
-  <si>
-    <t>Life stage of the fish. Levels = c("Not recorded", "Parr")</t>
   </si>
   <si>
     <t>Work that was done during visit to trap. Levels =c("Continue trapping", "Unplanned restart")</t>
@@ -235,25 +202,16 @@
     <t>Name of the trap or trap location. Levels = c("RL", "RR")</t>
   </si>
   <si>
-    <t>type of mark on fish. Level = "Pigment / dye"</t>
+    <t>Run revised after field visit. This is the field used in analysis. Levels = c("Not recorded", "Fall")</t>
   </si>
   <si>
-    <t>color of mark on fish. Level = "Brown"</t>
+    <t>type of mark on fish. Levels = c("Pigment / dye", "Elastomer")</t>
   </si>
   <si>
-    <t>position of mark on body of fish. Level = "whole body"</t>
+    <t>color of mark on fish. Levels = c("Brown", "Red")</t>
   </si>
   <si>
-    <t>mort</t>
-  </si>
-  <si>
-    <t>Mortality. Levels = c("Yes", "No")</t>
-  </si>
-  <si>
-    <t>actualCountID</t>
-  </si>
-  <si>
-    <t>Number corresponding to actualCount value</t>
+    <t>position of mark on body of fish. Levels = c("whole body", "nose")</t>
   </si>
 </sst>
 </file>
@@ -564,11 +522,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z988"/>
+  <dimension ref="A1:Z982"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -647,13 +605,13 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -691,7 +649,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
@@ -729,7 +687,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
@@ -761,13 +719,13 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
@@ -805,7 +763,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
@@ -834,16 +792,16 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
@@ -872,16 +830,16 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>19</v>
@@ -913,13 +871,13 @@
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
@@ -948,16 +906,16 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
@@ -986,28 +944,38 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>10</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1024,124 +992,110 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="11">
+        <v>44594.41678240741</v>
+      </c>
+      <c r="M12" s="11">
+        <v>44679.479571759257</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>58</v>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>0</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="2"/>
       <c r="J14" s="3"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1158,38 +1112,28 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="3">
-        <v>1</v>
-      </c>
-      <c r="M15" s="3">
-        <v>10</v>
-      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1206,16 +1150,16 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>19</v>
@@ -1244,102 +1188,86 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="5" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="11">
-        <v>44594.41678240741</v>
-      </c>
-      <c r="M17" s="11">
-        <v>44679.479571759257</v>
-      </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="B18" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A19" s="12"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1363,21 +1291,11 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A20" s="13"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1401,21 +1319,11 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A21" s="12"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -1439,21 +1347,11 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A22" s="13"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1477,21 +1375,11 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A23" s="4"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1515,21 +1403,11 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A24" s="4"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1553,7 +1431,7 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
@@ -1581,7 +1459,7 @@
       <c r="Z25" s="1"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
@@ -1609,7 +1487,7 @@
       <c r="Z26" s="1"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
@@ -1637,7 +1515,7 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="2"/>
@@ -2449,7 +2327,7 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
+      <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="2"/>
@@ -2477,7 +2355,7 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
+      <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="2"/>
@@ -2505,7 +2383,7 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
+      <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="2"/>
@@ -2533,7 +2411,7 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
+      <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="2"/>
@@ -2561,7 +2439,7 @@
       <c r="Z60" s="1"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4"/>
+      <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="2"/>
@@ -2589,7 +2467,7 @@
       <c r="Z61" s="1"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="4"/>
+      <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="2"/>
@@ -28376,190 +28254,22 @@
       <c r="Y982" s="1"/>
       <c r="Z982" s="1"/>
     </row>
-    <row r="983" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A983" s="1"/>
-      <c r="B983" s="1"/>
-      <c r="C983" s="1"/>
-      <c r="D983" s="2"/>
-      <c r="E983" s="1"/>
-      <c r="F983" s="3"/>
-      <c r="G983" s="3"/>
-      <c r="H983" s="3"/>
-      <c r="I983" s="2"/>
-      <c r="J983" s="3"/>
-      <c r="K983" s="2"/>
-      <c r="L983" s="3"/>
-      <c r="M983" s="3"/>
-      <c r="N983" s="1"/>
-      <c r="O983" s="1"/>
-      <c r="P983" s="1"/>
-      <c r="Q983" s="1"/>
-      <c r="R983" s="1"/>
-      <c r="S983" s="1"/>
-      <c r="T983" s="1"/>
-      <c r="U983" s="1"/>
-      <c r="V983" s="1"/>
-      <c r="W983" s="1"/>
-      <c r="X983" s="1"/>
-      <c r="Y983" s="1"/>
-      <c r="Z983" s="1"/>
-    </row>
-    <row r="984" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A984" s="1"/>
-      <c r="B984" s="1"/>
-      <c r="C984" s="1"/>
-      <c r="D984" s="2"/>
-      <c r="E984" s="1"/>
-      <c r="F984" s="3"/>
-      <c r="G984" s="3"/>
-      <c r="H984" s="3"/>
-      <c r="I984" s="2"/>
-      <c r="J984" s="3"/>
-      <c r="K984" s="2"/>
-      <c r="L984" s="3"/>
-      <c r="M984" s="3"/>
-      <c r="N984" s="1"/>
-      <c r="O984" s="1"/>
-      <c r="P984" s="1"/>
-      <c r="Q984" s="1"/>
-      <c r="R984" s="1"/>
-      <c r="S984" s="1"/>
-      <c r="T984" s="1"/>
-      <c r="U984" s="1"/>
-      <c r="V984" s="1"/>
-      <c r="W984" s="1"/>
-      <c r="X984" s="1"/>
-      <c r="Y984" s="1"/>
-      <c r="Z984" s="1"/>
-    </row>
-    <row r="985" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A985" s="1"/>
-      <c r="B985" s="1"/>
-      <c r="C985" s="1"/>
-      <c r="D985" s="2"/>
-      <c r="E985" s="1"/>
-      <c r="F985" s="3"/>
-      <c r="G985" s="3"/>
-      <c r="H985" s="3"/>
-      <c r="I985" s="2"/>
-      <c r="J985" s="3"/>
-      <c r="K985" s="2"/>
-      <c r="L985" s="3"/>
-      <c r="M985" s="3"/>
-      <c r="N985" s="1"/>
-      <c r="O985" s="1"/>
-      <c r="P985" s="1"/>
-      <c r="Q985" s="1"/>
-      <c r="R985" s="1"/>
-      <c r="S985" s="1"/>
-      <c r="T985" s="1"/>
-      <c r="U985" s="1"/>
-      <c r="V985" s="1"/>
-      <c r="W985" s="1"/>
-      <c r="X985" s="1"/>
-      <c r="Y985" s="1"/>
-      <c r="Z985" s="1"/>
-    </row>
-    <row r="986" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A986" s="1"/>
-      <c r="B986" s="1"/>
-      <c r="C986" s="1"/>
-      <c r="D986" s="2"/>
-      <c r="E986" s="1"/>
-      <c r="F986" s="3"/>
-      <c r="G986" s="3"/>
-      <c r="H986" s="3"/>
-      <c r="I986" s="2"/>
-      <c r="J986" s="3"/>
-      <c r="K986" s="2"/>
-      <c r="L986" s="3"/>
-      <c r="M986" s="3"/>
-      <c r="N986" s="1"/>
-      <c r="O986" s="1"/>
-      <c r="P986" s="1"/>
-      <c r="Q986" s="1"/>
-      <c r="R986" s="1"/>
-      <c r="S986" s="1"/>
-      <c r="T986" s="1"/>
-      <c r="U986" s="1"/>
-      <c r="V986" s="1"/>
-      <c r="W986" s="1"/>
-      <c r="X986" s="1"/>
-      <c r="Y986" s="1"/>
-      <c r="Z986" s="1"/>
-    </row>
-    <row r="987" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A987" s="1"/>
-      <c r="B987" s="1"/>
-      <c r="C987" s="1"/>
-      <c r="D987" s="2"/>
-      <c r="E987" s="1"/>
-      <c r="F987" s="3"/>
-      <c r="G987" s="3"/>
-      <c r="H987" s="3"/>
-      <c r="I987" s="2"/>
-      <c r="J987" s="3"/>
-      <c r="K987" s="2"/>
-      <c r="L987" s="3"/>
-      <c r="M987" s="3"/>
-      <c r="N987" s="1"/>
-      <c r="O987" s="1"/>
-      <c r="P987" s="1"/>
-      <c r="Q987" s="1"/>
-      <c r="R987" s="1"/>
-      <c r="S987" s="1"/>
-      <c r="T987" s="1"/>
-      <c r="U987" s="1"/>
-      <c r="V987" s="1"/>
-      <c r="W987" s="1"/>
-      <c r="X987" s="1"/>
-      <c r="Y987" s="1"/>
-      <c r="Z987" s="1"/>
-    </row>
-    <row r="988" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A988" s="1"/>
-      <c r="B988" s="1"/>
-      <c r="C988" s="1"/>
-      <c r="D988" s="2"/>
-      <c r="E988" s="1"/>
-      <c r="F988" s="3"/>
-      <c r="G988" s="3"/>
-      <c r="H988" s="3"/>
-      <c r="I988" s="2"/>
-      <c r="J988" s="3"/>
-      <c r="K988" s="2"/>
-      <c r="L988" s="3"/>
-      <c r="M988" s="3"/>
-      <c r="N988" s="1"/>
-      <c r="O988" s="1"/>
-      <c r="P988" s="1"/>
-      <c r="Q988" s="1"/>
-      <c r="R988" s="1"/>
-      <c r="S988" s="1"/>
-      <c r="T988" s="1"/>
-      <c r="U988" s="1"/>
-      <c r="V988" s="1"/>
-      <c r="W988" s="1"/>
-      <c r="X988" s="1"/>
-      <c r="Y988" s="1"/>
-      <c r="Z988" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C45:C988 C1:C33" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C39:C982 C1:C27" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E988" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E982" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F988" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F982" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H988" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H982" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28586,13 +28296,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -28623,7 +28333,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>

--- a/data-raw/metadata/lower_feather_recapture_metadata.xlsx
+++ b/data-raw/metadata/lower_feather_recapture_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-lower-feather-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252085D1-087C-414E-A19B-2FCF20E13634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4A1844-3755-3343-B3C3-2DD0613731CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,9 +178,6 @@
     <t>recapture</t>
   </si>
   <si>
-    <t>Foreign key to the CAMP ProjectDescription table. All data associated with this package will have a ProjectDescriptionID = 12</t>
-  </si>
-  <si>
     <t>Lower Feather River RST</t>
   </si>
   <si>
@@ -205,13 +202,16 @@
     <t>Run revised after field visit. This is the field used in analysis. Levels = c("Not recorded", "Fall")</t>
   </si>
   <si>
-    <t>type of mark on fish. Levels = c("Pigment / dye", "Elastomer")</t>
+    <t>Foreign key to the CAMP ProjectDescription table. All data associated with this package will have a ProjectDescriptionID = 12.</t>
   </si>
   <si>
-    <t>color of mark on fish. Levels = c("Brown", "Red")</t>
+    <t>color of mark on fish. Levels = "Brown"</t>
   </si>
   <si>
-    <t>position of mark on body of fish. Levels = c("whole body", "nose")</t>
+    <t>type of mark on fish. Level = "Pigment / dye"</t>
+  </si>
+  <si>
+    <t>position of mark on body of fish. Level = "Whole body"</t>
   </si>
 </sst>
 </file>
@@ -280,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -307,6 +307,10 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,7 +530,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -605,7 +609,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
@@ -719,7 +723,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
@@ -795,7 +799,7 @@
         <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -833,7 +837,7 @@
         <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -866,43 +870,43 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:26" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>54</v>
+      <c r="B9" s="14" t="s">
+        <v>53</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -1039,7 +1043,7 @@
         <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -1077,7 +1081,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
@@ -1115,7 +1119,7 @@
         <v>38</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
@@ -1153,7 +1157,7 @@
         <v>39</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
@@ -1191,7 +1195,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
@@ -28333,7 +28337,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>

--- a/data-raw/metadata/lower_feather_recapture_metadata.xlsx
+++ b/data-raw/metadata/lower_feather_recapture_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badhia\Documents\git\jpe-lower-feather-edi\data-raw\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3343A0-2A2F-4E33-A831-C4AA432436BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E14DA4-5499-4216-8FCC-EC5196C146A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="1060" windowWidth="19900" windowHeight="13150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="2390" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="69">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -213,6 +213,27 @@
   <si>
     <t>position of mark on body of fish. Level = "Whole body", "Nose"</t>
   </si>
+  <si>
+    <t>trap_start_date</t>
+  </si>
+  <si>
+    <t>Start date and time of a trapping period. Derived from visitTime and visitTime2 fields, adjusted based on the visitType field</t>
+  </si>
+  <si>
+    <t>trap_end_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> End date and time of a trapping period. Derived from visitTime and visitTime2 fields, adjusted based on the visitType field</t>
+  </si>
+  <si>
+    <t>2024-03-29 10:45:51</t>
+  </si>
+  <si>
+    <t>2022-02-02 10:00:10</t>
+  </si>
+  <si>
+    <t>2024-03-31 08:30:21</t>
+  </si>
 </sst>
 </file>
 
@@ -280,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -307,6 +328,9 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,8 +549,8 @@
   <dimension ref="A1:Z982"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1269,19 +1293,35 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1"/>
+      <c r="A19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="3"/>
+      <c r="J19" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="K19" s="2"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="L19" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1297,19 +1337,35 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
+      <c r="A20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="3"/>
+      <c r="J20" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="K20" s="2"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="L20" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -28261,8 +28317,7 @@
       <c r="Z982" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A19:A20"/>
+  <mergeCells count="1">
     <mergeCell ref="A21:A22"/>
   </mergeCells>
   <dataValidations count="4">
